--- a/ig/ch-epr-fhir/StructureDefinition-ChAuditEventPpq3Update.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ChAuditEventPpq3Update.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -121,7 +121,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://profiles.ihe.net/ITI/BALP/StructureDefinition/IHE.BasicAudit.PatientUpdate</t>
+    <t>https://profiles.ihe.net/ITI/BALP/StructureDefinition/IHE.BasicAudit.PatientUpdate|1.1.4</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -383,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -512,7 +512,7 @@
     <t>Type of event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-event-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-event-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -548,7 +548,7 @@
     <t>Sub-type of event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-event-sub-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-event-sub-type|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -577,7 +577,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/AllUpdateVS</t>
+    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/AllUpdateVS|1.1.4</t>
   </si>
   <si>
     <t>AuditEvent.subtype:ppq3</t>
@@ -790,7 +790,7 @@
     <t>An agent can be a person, an organization, software, device, or other actors that may be ascribed responsibility.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:type}
+    <t xml:space="preserve">value:type}
 </t>
   </si>
   <si>
@@ -865,7 +865,7 @@
     <t>The Participation type of the agent to the event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participation-role-type</t>
+    <t>http://hl7.org/fhir/ValueSet/participation-role-type|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -904,7 +904,7 @@
     <t>What security role enabled the agent to participate in the event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
+    <t>http://hl7.org/fhir/ValueSet/security-role-type|4.0.1</t>
   </si>
   <si>
     <t>.role</t>
@@ -920,7 +920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(PractitionerRole|Practitioner|Organization|Device|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(PractitionerRole|4.0.1|Practitioner|4.0.1|Organization|4.0.1|Device|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1015,7 +1015,7 @@
     <t>AuditEvent.agent.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1082,7 +1082,7 @@
     <t>Used when the event is about exporting/importing onto media.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/dicm-405-mediatype</t>
+    <t>http://hl7.org/fhir/ValueSet/dicm-405-mediatype|4.0.1</t>
   </si>
   <si>
     <t>.player.description.mediaType</t>
@@ -1343,7 +1343,7 @@
     <t>AuditEvent.agent:user.type</t>
   </si>
   <si>
-    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/DataSources</t>
+    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/DataSources|1.1.4</t>
   </si>
   <si>
     <t>AuditEvent.agent:user.role</t>
@@ -1632,7 +1632,7 @@
     <t>Code specifying the type of system that detected and recorded the event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-source-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-source-type|4.0.1</t>
   </si>
   <si>
     <t>.code</t>
@@ -1688,7 +1688,7 @@
     <t>AuditEvent.entity.what</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1722,7 +1722,7 @@
     <t>Code for the entity type involved in the audit event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-entity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-entity-type|4.0.1</t>
   </si>
   <si>
     <t>[self::Act].code or role.player.code</t>
@@ -1752,7 +1752,7 @@
     <t>Code representing the role the entity played in the audit event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/object-role</t>
+    <t>http://hl7.org/fhir/ValueSet/object-role|4.0.1</t>
   </si>
   <si>
     <t>role.code (not sure what this would mean for an Act)</t>
@@ -1782,7 +1782,7 @@
     <t>Institutional policies for privacy and security may optionally fall under different accountability rules based on data life cycle. This provides a differentiating value for those cases.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/object-lifecycle-events|5.2.0</t>
+    <t>http://hl7.org/fhir/ValueSet/object-lifecycle-events|4.0.1</t>
   </si>
   <si>
     <t>target of ObservationEvent[code="lifecycle"].value</t>
@@ -1812,7 +1812,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>.confidentialityCode</t>
@@ -2031,7 +2031,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -2128,7 +2128,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -2209,7 +2209,7 @@
     <t>AuditEvent.entity.what.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -2379,7 +2379,7 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/RestObjectRoles</t>
+    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/RestObjectRoles|1.1.4</t>
   </si>
   <si>
     <t>AuditEvent.entity:data.lifecycle</t>
@@ -3001,7 +3001,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.81640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.98828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3016,7 +3016,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.39453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.74609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -13159,7 +13159,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>93</v>
@@ -13262,7 +13262,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>423</v>
       </c>
@@ -13626,7 +13626,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>426</v>
       </c>
@@ -14948,7 +14948,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>438</v>
       </c>
@@ -19882,7 +19882,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="141" hidden="true">
+    <row r="141">
       <c r="A141" t="s" s="2">
         <v>486</v>
       </c>
@@ -38300,12 +38300,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP293">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
